--- a/database/industries/darou/detmad/product/quarterly_seprated.xlsx
+++ b/database/industries/darou/detmad/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\detmad\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\detmad\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0F181F-426D-4082-A497-1EAF6E1FF396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19974615-DF9F-4E37-BC5F-1B559A346AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="55">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>مقدار فروش داخلی</t>
@@ -667,12 +667,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -687,7 +687,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -704,7 +704,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -721,7 +721,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -736,7 +736,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -753,7 +753,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -770,7 +770,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -785,7 +785,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -822,7 +822,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -837,7 +837,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -854,7 +854,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -863,37 +863,37 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>449988</v>
+        <v>655504</v>
       </c>
       <c r="F11" s="11">
-        <v>655504</v>
+        <v>358085</v>
       </c>
       <c r="G11" s="11">
-        <v>358085</v>
+        <v>403650</v>
       </c>
       <c r="H11" s="11">
-        <v>403650</v>
+        <v>371353</v>
       </c>
       <c r="I11" s="11">
-        <v>371353</v>
-      </c>
-      <c r="J11" s="11">
         <v>359173</v>
       </c>
-      <c r="K11" s="11" t="s">
-        <v>18</v>
+      <c r="J11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="11">
+        <v>284520</v>
       </c>
       <c r="L11" s="11">
-        <v>284520</v>
+        <v>403601</v>
       </c>
       <c r="M11" s="11">
-        <v>403601</v>
+        <v>369785</v>
       </c>
       <c r="N11" s="11">
-        <v>369785</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>706665</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>19</v>
       </c>
@@ -902,37 +902,37 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>111866</v>
+        <v>156409</v>
       </c>
       <c r="F12" s="13">
-        <v>156409</v>
+        <v>31226</v>
       </c>
       <c r="G12" s="13">
-        <v>31226</v>
+        <v>58160</v>
       </c>
       <c r="H12" s="13">
-        <v>58160</v>
+        <v>132692</v>
       </c>
       <c r="I12" s="13">
-        <v>132692</v>
-      </c>
-      <c r="J12" s="13">
         <v>128888</v>
       </c>
-      <c r="K12" s="13" t="s">
-        <v>18</v>
+      <c r="J12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="13">
+        <v>14269</v>
       </c>
       <c r="L12" s="13">
-        <v>14269</v>
+        <v>26800</v>
       </c>
       <c r="M12" s="13">
-        <v>26800</v>
+        <v>124981</v>
       </c>
       <c r="N12" s="13">
-        <v>124981</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>50940</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -941,74 +941,74 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>262663</v>
+        <v>-11834723</v>
       </c>
       <c r="F13" s="11">
-        <v>-11834723</v>
+        <v>-39026306</v>
       </c>
       <c r="G13" s="11">
-        <v>-39026306</v>
+        <v>11980748</v>
       </c>
       <c r="H13" s="11">
-        <v>11980748</v>
+        <v>29804173</v>
       </c>
       <c r="I13" s="11">
-        <v>29804173</v>
-      </c>
-      <c r="J13" s="11">
         <v>23055221</v>
       </c>
-      <c r="K13" s="11" t="s">
-        <v>18</v>
+      <c r="J13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="11">
+        <v>44842702</v>
       </c>
       <c r="L13" s="11">
-        <v>44842702</v>
+        <v>10231443</v>
       </c>
       <c r="M13" s="11">
-        <v>10231443</v>
+        <v>9639088</v>
       </c>
       <c r="N13" s="11">
-        <v>9639088</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1292885</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15">
-        <v>824517</v>
+        <v>-11022810</v>
       </c>
       <c r="F14" s="15">
-        <v>-11022810</v>
+        <v>-38636995</v>
       </c>
       <c r="G14" s="15">
-        <v>-38636995</v>
+        <v>12442558</v>
       </c>
       <c r="H14" s="15">
-        <v>12442558</v>
+        <v>30308218</v>
       </c>
       <c r="I14" s="15">
-        <v>30308218</v>
+        <v>23543282</v>
       </c>
       <c r="J14" s="15">
-        <v>23543282</v>
+        <v>0</v>
       </c>
       <c r="K14" s="15">
-        <v>0</v>
+        <v>45141491</v>
       </c>
       <c r="L14" s="15">
-        <v>45141491</v>
+        <v>10661844</v>
       </c>
       <c r="M14" s="15">
-        <v>10661844</v>
+        <v>10133854</v>
       </c>
       <c r="N14" s="15">
-        <v>10133854</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2050490</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
         <v>23</v>
       </c>
@@ -1025,7 +1025,7 @@
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>16</v>
       </c>
@@ -1034,25 +1034,25 @@
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11">
+        <v>0</v>
+      </c>
+      <c r="F16" s="11">
+        <v>0</v>
+      </c>
+      <c r="G16" s="11">
+        <v>10150</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0</v>
+      </c>
+      <c r="I16" s="11">
         <v>19980</v>
       </c>
-      <c r="F16" s="11">
-        <v>0</v>
-      </c>
-      <c r="G16" s="11">
-        <v>0</v>
-      </c>
-      <c r="H16" s="11">
-        <v>10150</v>
-      </c>
-      <c r="I16" s="11">
-        <v>0</v>
-      </c>
-      <c r="J16" s="11">
-        <v>19980</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>18</v>
+      <c r="J16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="11">
+        <v>0</v>
       </c>
       <c r="L16" s="11">
         <v>0</v>
@@ -1064,7 +1064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
         <v>19</v>
       </c>
@@ -1073,37 +1073,37 @@
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13">
-        <v>5158</v>
+        <v>4306</v>
       </c>
       <c r="F17" s="13">
-        <v>4306</v>
+        <v>1376</v>
       </c>
       <c r="G17" s="13">
-        <v>1376</v>
+        <v>3919</v>
       </c>
       <c r="H17" s="13">
-        <v>3919</v>
+        <v>13240</v>
       </c>
       <c r="I17" s="13">
-        <v>13240</v>
-      </c>
-      <c r="J17" s="13">
         <v>1233</v>
       </c>
-      <c r="K17" s="13" t="s">
-        <v>18</v>
+      <c r="J17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="13">
+        <v>17910</v>
       </c>
       <c r="L17" s="13">
-        <v>17910</v>
+        <v>889</v>
       </c>
       <c r="M17" s="13">
-        <v>889</v>
+        <v>2490</v>
       </c>
       <c r="N17" s="13">
-        <v>2490</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>20</v>
       </c>
@@ -1112,25 +1112,25 @@
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11">
-        <v>3600</v>
+        <v>-11991450</v>
       </c>
       <c r="F18" s="11">
-        <v>-11991450</v>
+        <v>-26990760</v>
       </c>
       <c r="G18" s="11">
-        <v>-26990760</v>
+        <v>3000000</v>
       </c>
       <c r="H18" s="11">
-        <v>3000000</v>
+        <v>16465900</v>
       </c>
       <c r="I18" s="11">
-        <v>16465900</v>
-      </c>
-      <c r="J18" s="11">
-        <v>0</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="11">
+        <v>0</v>
       </c>
       <c r="L18" s="11">
         <v>0</v>
@@ -1142,44 +1142,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15">
-        <v>28738</v>
+        <v>-11987144</v>
       </c>
       <c r="F19" s="15">
-        <v>-11987144</v>
+        <v>-26989384</v>
       </c>
       <c r="G19" s="15">
-        <v>-26989384</v>
+        <v>3014069</v>
       </c>
       <c r="H19" s="15">
-        <v>3014069</v>
+        <v>16479140</v>
       </c>
       <c r="I19" s="15">
-        <v>16479140</v>
+        <v>21213</v>
       </c>
       <c r="J19" s="15">
-        <v>21213</v>
+        <v>0</v>
       </c>
       <c r="K19" s="15">
-        <v>0</v>
+        <v>17910</v>
       </c>
       <c r="L19" s="15">
-        <v>17910</v>
+        <v>889</v>
       </c>
       <c r="M19" s="15">
-        <v>889</v>
+        <v>2490</v>
       </c>
       <c r="N19" s="15">
-        <v>2490</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>25</v>
       </c>
@@ -1196,7 +1196,7 @@
       <c r="M20" s="17"/>
       <c r="N20" s="17"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="18" t="s">
         <v>26</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>27</v>
       </c>
@@ -1247,8 +1247,8 @@
       <c r="F22" s="15">
         <v>0</v>
       </c>
-      <c r="G22" s="15">
-        <v>0</v>
+      <c r="G22" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="H22" s="15" t="s">
         <v>18</v>
@@ -1272,7 +1272,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="18" t="s">
         <v>29</v>
       </c>
@@ -1284,20 +1284,20 @@
       <c r="F23" s="19">
         <v>0</v>
       </c>
-      <c r="G23" s="19">
-        <v>0</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>18</v>
+      <c r="G23" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="19">
+        <v>0</v>
       </c>
       <c r="I23" s="19">
         <v>0</v>
       </c>
-      <c r="J23" s="19">
-        <v>0</v>
-      </c>
-      <c r="K23" s="19" t="s">
-        <v>18</v>
+      <c r="J23" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="19">
+        <v>0</v>
       </c>
       <c r="L23" s="19">
         <v>0</v>
@@ -1309,44 +1309,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15">
-        <v>853255</v>
+        <v>-23009954</v>
       </c>
       <c r="F24" s="15">
-        <v>-23009954</v>
+        <v>-65626379</v>
       </c>
       <c r="G24" s="15">
-        <v>-65626379</v>
+        <v>15456627</v>
       </c>
       <c r="H24" s="15">
-        <v>15456627</v>
+        <v>46787358</v>
       </c>
       <c r="I24" s="15">
-        <v>46787358</v>
+        <v>23564495</v>
       </c>
       <c r="J24" s="15">
-        <v>23564495</v>
+        <v>0</v>
       </c>
       <c r="K24" s="15">
-        <v>0</v>
+        <v>45159401</v>
       </c>
       <c r="L24" s="15">
-        <v>45159401</v>
+        <v>10662733</v>
       </c>
       <c r="M24" s="15">
-        <v>10662733</v>
+        <v>10136344</v>
       </c>
       <c r="N24" s="15">
-        <v>10136344</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2052723</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1361,7 +1361,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1376,7 +1376,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1391,7 +1391,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>31</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1443,7 +1443,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>32</v>
       </c>
@@ -1460,7 +1460,7 @@
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>16</v>
       </c>
@@ -1469,37 +1469,37 @@
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11">
-        <v>990721</v>
+        <v>1408312</v>
       </c>
       <c r="F31" s="11">
-        <v>1408312</v>
+        <v>988963</v>
       </c>
       <c r="G31" s="11">
-        <v>988963</v>
+        <v>1459064</v>
       </c>
       <c r="H31" s="11">
-        <v>1459064</v>
+        <v>1376651</v>
       </c>
       <c r="I31" s="11">
-        <v>1376651</v>
-      </c>
-      <c r="J31" s="11">
         <v>1325168</v>
       </c>
-      <c r="K31" s="11" t="s">
-        <v>18</v>
+      <c r="J31" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31" s="11">
+        <v>1252898</v>
       </c>
       <c r="L31" s="11">
-        <v>1252898</v>
+        <v>2621527</v>
       </c>
       <c r="M31" s="11">
-        <v>2621527</v>
+        <v>1811129</v>
       </c>
       <c r="N31" s="11">
-        <v>1811129</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3587536</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
         <v>19</v>
       </c>
@@ -1508,37 +1508,37 @@
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="13">
-        <v>250120</v>
+        <v>254934</v>
       </c>
       <c r="F32" s="13">
-        <v>254934</v>
+        <v>123391</v>
       </c>
       <c r="G32" s="13">
-        <v>123391</v>
+        <v>318803</v>
       </c>
       <c r="H32" s="13">
-        <v>318803</v>
+        <v>606200</v>
       </c>
       <c r="I32" s="13">
-        <v>606200</v>
-      </c>
-      <c r="J32" s="13">
         <v>276947</v>
       </c>
-      <c r="K32" s="13" t="s">
-        <v>18</v>
+      <c r="J32" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32" s="13">
+        <v>99113</v>
       </c>
       <c r="L32" s="13">
-        <v>99113</v>
+        <v>180856</v>
       </c>
       <c r="M32" s="13">
-        <v>180856</v>
+        <v>120489</v>
       </c>
       <c r="N32" s="13">
-        <v>120489</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+        <v>282318</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>20</v>
       </c>
@@ -1547,74 +1547,74 @@
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11">
-        <v>206284</v>
+        <v>259830</v>
       </c>
       <c r="F33" s="11">
-        <v>259830</v>
+        <v>129443</v>
       </c>
       <c r="G33" s="11">
-        <v>129443</v>
+        <v>151310</v>
       </c>
       <c r="H33" s="11">
-        <v>151310</v>
+        <v>264883</v>
       </c>
       <c r="I33" s="11">
-        <v>264883</v>
-      </c>
-      <c r="J33" s="11">
         <v>196285</v>
       </c>
-      <c r="K33" s="11" t="s">
-        <v>18</v>
+      <c r="J33" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" s="11">
+        <v>351107</v>
       </c>
       <c r="L33" s="11">
-        <v>351107</v>
+        <v>495428</v>
       </c>
       <c r="M33" s="11">
-        <v>495428</v>
+        <v>348065</v>
       </c>
       <c r="N33" s="11">
-        <v>348065</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+        <v>320076</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15">
-        <v>1447125</v>
+        <v>1923076</v>
       </c>
       <c r="F34" s="15">
-        <v>1923076</v>
+        <v>1241797</v>
       </c>
       <c r="G34" s="15">
-        <v>1241797</v>
+        <v>1929177</v>
       </c>
       <c r="H34" s="15">
-        <v>1929177</v>
+        <v>2247734</v>
       </c>
       <c r="I34" s="15">
-        <v>2247734</v>
+        <v>1798400</v>
       </c>
       <c r="J34" s="15">
-        <v>1798400</v>
+        <v>0</v>
       </c>
       <c r="K34" s="15">
-        <v>0</v>
+        <v>1703118</v>
       </c>
       <c r="L34" s="15">
-        <v>1703118</v>
+        <v>3297811</v>
       </c>
       <c r="M34" s="15">
-        <v>3297811</v>
+        <v>2279683</v>
       </c>
       <c r="N34" s="15">
-        <v>2279683</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4189930</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>34</v>
       </c>
@@ -1631,7 +1631,7 @@
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>16</v>
       </c>
@@ -1640,25 +1640,25 @@
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
-        <v>25818</v>
+        <v>0</v>
       </c>
       <c r="F36" s="11">
         <v>0</v>
       </c>
       <c r="G36" s="11">
-        <v>0</v>
+        <v>18320</v>
       </c>
       <c r="H36" s="11">
-        <v>18320</v>
+        <v>0</v>
       </c>
       <c r="I36" s="11">
-        <v>0</v>
-      </c>
-      <c r="J36" s="11">
         <v>50980</v>
       </c>
-      <c r="K36" s="11" t="s">
-        <v>18</v>
+      <c r="J36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" s="11">
+        <v>0</v>
       </c>
       <c r="L36" s="11">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
         <v>19</v>
       </c>
@@ -1679,37 +1679,37 @@
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="13">
-        <v>476713</v>
+        <v>605171</v>
       </c>
       <c r="F37" s="13">
-        <v>605171</v>
+        <v>183665</v>
       </c>
       <c r="G37" s="13">
-        <v>183665</v>
+        <v>399119</v>
       </c>
       <c r="H37" s="13">
-        <v>399119</v>
+        <v>525060</v>
       </c>
       <c r="I37" s="13">
-        <v>525060</v>
-      </c>
-      <c r="J37" s="13">
         <v>131040</v>
       </c>
-      <c r="K37" s="13" t="s">
-        <v>18</v>
+      <c r="J37" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37" s="13">
+        <v>797761</v>
       </c>
       <c r="L37" s="13">
-        <v>797761</v>
+        <v>148664</v>
       </c>
       <c r="M37" s="13">
-        <v>148664</v>
+        <v>291882</v>
       </c>
       <c r="N37" s="13">
-        <v>291882</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+        <v>375691</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>20</v>
       </c>
@@ -1718,25 +1718,25 @@
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11">
-        <v>56847</v>
+        <v>81271</v>
       </c>
       <c r="F38" s="11">
-        <v>81271</v>
+        <v>15924</v>
       </c>
       <c r="G38" s="11">
-        <v>15924</v>
+        <v>14549</v>
       </c>
       <c r="H38" s="11">
-        <v>14549</v>
+        <v>86212</v>
       </c>
       <c r="I38" s="11">
-        <v>86212</v>
-      </c>
-      <c r="J38" s="11">
         <v>1</v>
       </c>
-      <c r="K38" s="11" t="s">
-        <v>18</v>
+      <c r="J38" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K38" s="11">
+        <v>0</v>
       </c>
       <c r="L38" s="11">
         <v>0</v>
@@ -1748,44 +1748,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15">
-        <v>559378</v>
+        <v>686442</v>
       </c>
       <c r="F39" s="15">
-        <v>686442</v>
+        <v>199589</v>
       </c>
       <c r="G39" s="15">
-        <v>199589</v>
+        <v>431988</v>
       </c>
       <c r="H39" s="15">
-        <v>431988</v>
+        <v>611272</v>
       </c>
       <c r="I39" s="15">
-        <v>611272</v>
+        <v>182021</v>
       </c>
       <c r="J39" s="15">
-        <v>182021</v>
+        <v>0</v>
       </c>
       <c r="K39" s="15">
-        <v>0</v>
+        <v>797761</v>
       </c>
       <c r="L39" s="15">
-        <v>797761</v>
+        <v>148664</v>
       </c>
       <c r="M39" s="15">
-        <v>148664</v>
+        <v>291882</v>
       </c>
       <c r="N39" s="15">
-        <v>291882</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+        <v>375691</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="16" t="s">
         <v>35</v>
       </c>
@@ -1802,7 +1802,7 @@
       <c r="M40" s="17"/>
       <c r="N40" s="17"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="18" t="s">
         <v>26</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="14" t="s">
         <v>27</v>
       </c>
@@ -1853,8 +1853,8 @@
       <c r="F42" s="15">
         <v>0</v>
       </c>
-      <c r="G42" s="15">
-        <v>0</v>
+      <c r="G42" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="H42" s="15" t="s">
         <v>18</v>
@@ -1878,7 +1878,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="18" t="s">
         <v>29</v>
       </c>
@@ -1892,20 +1892,20 @@
       <c r="F43" s="19">
         <v>0</v>
       </c>
-      <c r="G43" s="19">
-        <v>0</v>
-      </c>
-      <c r="H43" s="19" t="s">
-        <v>18</v>
+      <c r="G43" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43" s="19">
+        <v>0</v>
       </c>
       <c r="I43" s="19">
         <v>0</v>
       </c>
-      <c r="J43" s="19">
-        <v>0</v>
-      </c>
-      <c r="K43" s="19" t="s">
-        <v>18</v>
+      <c r="J43" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K43" s="19">
+        <v>0</v>
       </c>
       <c r="L43" s="19">
         <v>0</v>
@@ -1917,44 +1917,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15">
-        <v>2006503</v>
+        <v>2609518</v>
       </c>
       <c r="F44" s="15">
-        <v>2609518</v>
+        <v>1441386</v>
       </c>
       <c r="G44" s="15">
-        <v>1441386</v>
+        <v>2361165</v>
       </c>
       <c r="H44" s="15">
-        <v>2361165</v>
+        <v>2859006</v>
       </c>
       <c r="I44" s="15">
-        <v>2859006</v>
+        <v>1980421</v>
       </c>
       <c r="J44" s="15">
-        <v>1980421</v>
+        <v>0</v>
       </c>
       <c r="K44" s="15">
-        <v>0</v>
+        <v>2500879</v>
       </c>
       <c r="L44" s="15">
-        <v>2500879</v>
+        <v>3446475</v>
       </c>
       <c r="M44" s="15">
-        <v>3446475</v>
+        <v>2571565</v>
       </c>
       <c r="N44" s="15">
-        <v>2571565</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4565621</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1969,7 +1969,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1984,7 +1984,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1999,7 +1999,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
         <v>36</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2051,7 +2051,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>37</v>
       </c>
@@ -2068,7 +2068,7 @@
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>16</v>
       </c>
@@ -2077,37 +2077,37 @@
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
-        <v>2201661</v>
+        <v>2148442</v>
       </c>
       <c r="F51" s="11">
-        <v>2148442</v>
+        <v>2761811</v>
       </c>
       <c r="G51" s="11">
-        <v>2761811</v>
+        <v>3614676</v>
       </c>
       <c r="H51" s="11">
-        <v>3614676</v>
+        <v>3707122</v>
       </c>
       <c r="I51" s="11">
-        <v>3707122</v>
+        <v>3689498</v>
       </c>
       <c r="J51" s="11">
-        <v>3689498</v>
+        <v>4140555</v>
       </c>
       <c r="K51" s="11">
-        <v>4140555</v>
+        <v>4403550</v>
       </c>
       <c r="L51" s="11">
-        <v>4403550</v>
+        <v>6495343</v>
       </c>
       <c r="M51" s="11">
-        <v>6495343</v>
+        <v>4897789</v>
       </c>
       <c r="N51" s="11">
-        <v>4897789</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5076714</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="12" t="s">
         <v>19</v>
       </c>
@@ -2116,37 +2116,37 @@
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="13">
-        <v>2235889</v>
+        <v>1629925</v>
       </c>
       <c r="F52" s="13">
-        <v>1629925</v>
+        <v>3951547</v>
       </c>
       <c r="G52" s="13">
-        <v>3951547</v>
+        <v>5481482</v>
       </c>
       <c r="H52" s="13">
-        <v>5481482</v>
+        <v>4568474</v>
       </c>
       <c r="I52" s="13">
-        <v>4568474</v>
+        <v>2148742</v>
       </c>
       <c r="J52" s="13">
-        <v>2148742</v>
+        <v>2647236</v>
       </c>
       <c r="K52" s="13">
-        <v>2647236</v>
+        <v>6946037</v>
       </c>
       <c r="L52" s="13">
-        <v>6946037</v>
+        <v>6748358</v>
       </c>
       <c r="M52" s="13">
-        <v>6748358</v>
+        <v>964059</v>
       </c>
       <c r="N52" s="13">
-        <v>964059</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5542167</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>20</v>
       </c>
@@ -2155,37 +2155,37 @@
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11">
-        <v>785356</v>
+        <v>900146</v>
       </c>
       <c r="F53" s="11">
-        <v>900146</v>
+        <v>550550</v>
       </c>
       <c r="G53" s="11">
-        <v>550550</v>
+        <v>12629</v>
       </c>
       <c r="H53" s="11">
-        <v>12629</v>
+        <v>8887</v>
       </c>
       <c r="I53" s="11">
-        <v>8887</v>
+        <v>8514</v>
       </c>
       <c r="J53" s="11">
-        <v>8514</v>
+        <v>13843</v>
       </c>
       <c r="K53" s="11">
-        <v>13843</v>
+        <v>7830</v>
       </c>
       <c r="L53" s="11">
-        <v>7830</v>
+        <v>48422</v>
       </c>
       <c r="M53" s="11">
-        <v>48422</v>
+        <v>36110</v>
       </c>
       <c r="N53" s="11">
-        <v>36110</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+        <v>247567</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>40</v>
       </c>
@@ -2202,7 +2202,7 @@
       <c r="M54" s="9"/>
       <c r="N54" s="9"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>16</v>
       </c>
@@ -2210,24 +2210,24 @@
         <v>38</v>
       </c>
       <c r="D55" s="11"/>
-      <c r="E55" s="11">
-        <v>1292192</v>
+      <c r="E55" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="F55" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G55" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H55" s="11">
+      <c r="G55" s="11">
         <v>1804926</v>
       </c>
-      <c r="I55" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J55" s="11">
+      <c r="H55" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55" s="11">
         <v>2551552</v>
       </c>
+      <c r="J55" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="K55" s="11" t="s">
         <v>18</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>19</v>
       </c>
@@ -2250,37 +2250,37 @@
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
-        <v>92422063</v>
+        <v>140541338</v>
       </c>
       <c r="F56" s="13">
-        <v>140541338</v>
+        <v>133477471</v>
       </c>
       <c r="G56" s="13">
-        <v>133477471</v>
+        <v>101842052</v>
       </c>
       <c r="H56" s="13">
-        <v>101842052</v>
+        <v>39657100</v>
       </c>
       <c r="I56" s="13">
-        <v>39657100</v>
+        <v>106277372</v>
       </c>
       <c r="J56" s="13">
-        <v>106277372</v>
+        <v>139111726</v>
       </c>
       <c r="K56" s="13">
-        <v>139111726</v>
+        <v>44542769</v>
       </c>
       <c r="L56" s="13">
-        <v>44542769</v>
+        <v>167226097</v>
       </c>
       <c r="M56" s="13">
-        <v>167226097</v>
+        <v>117221687</v>
       </c>
       <c r="N56" s="13">
-        <v>117221687</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+        <v>168244962</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>20</v>
       </c>
@@ -2289,20 +2289,20 @@
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
-        <v>15790833</v>
+        <v>19213002</v>
       </c>
       <c r="F57" s="11">
-        <v>19213002</v>
+        <v>23078261</v>
       </c>
       <c r="G57" s="11">
-        <v>23078261</v>
+        <v>4850</v>
       </c>
       <c r="H57" s="11">
-        <v>4850</v>
-      </c>
-      <c r="I57" s="11">
         <v>5236</v>
       </c>
+      <c r="I57" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="J57" s="11" t="s">
         <v>18</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2334,7 +2334,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2349,7 +2349,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2364,7 +2364,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B61" s="7" t="s">
         <v>41</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2416,7 +2416,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>42</v>
       </c>
@@ -2433,7 +2433,7 @@
       <c r="M63" s="9"/>
       <c r="N63" s="9"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>16</v>
       </c>
@@ -2442,37 +2442,37 @@
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
-        <v>-675645</v>
+        <v>-611182</v>
       </c>
       <c r="F64" s="11">
-        <v>-611182</v>
+        <v>-549639</v>
       </c>
       <c r="G64" s="11">
-        <v>-549639</v>
+        <v>-702334</v>
       </c>
       <c r="H64" s="11">
-        <v>-702334</v>
+        <v>-522966</v>
       </c>
       <c r="I64" s="11">
-        <v>-522966</v>
+        <v>-765747</v>
       </c>
       <c r="J64" s="11">
-        <v>-765747</v>
+        <v>-951866</v>
       </c>
       <c r="K64" s="11">
-        <v>-951866</v>
+        <v>-743038</v>
       </c>
       <c r="L64" s="11">
-        <v>-743038</v>
+        <v>-1325240</v>
       </c>
       <c r="M64" s="11">
-        <v>-1325240</v>
+        <v>-1014351</v>
       </c>
       <c r="N64" s="11">
-        <v>-1014351</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1993509</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
         <v>19</v>
       </c>
@@ -2481,37 +2481,37 @@
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="13">
-        <v>-132959</v>
+        <v>-169802</v>
       </c>
       <c r="F65" s="13">
-        <v>-169802</v>
+        <v>-28396</v>
       </c>
       <c r="G65" s="13">
-        <v>-28396</v>
+        <v>-122648</v>
       </c>
       <c r="H65" s="13">
-        <v>-122648</v>
+        <v>-254251</v>
       </c>
       <c r="I65" s="13">
-        <v>-254251</v>
+        <v>-77150</v>
       </c>
       <c r="J65" s="13">
-        <v>-77150</v>
+        <v>-168142</v>
       </c>
       <c r="K65" s="13">
-        <v>-168142</v>
+        <v>-50393</v>
       </c>
       <c r="L65" s="13">
-        <v>-50393</v>
+        <v>-124178</v>
       </c>
       <c r="M65" s="13">
-        <v>-124178</v>
+        <v>-84893</v>
       </c>
       <c r="N65" s="13">
-        <v>-84893</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-283429</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>20</v>
       </c>
@@ -2520,74 +2520,74 @@
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11">
-        <v>-47956</v>
+        <v>-150647</v>
       </c>
       <c r="F66" s="11">
-        <v>-150647</v>
+        <v>-80665</v>
       </c>
       <c r="G66" s="11">
-        <v>-80665</v>
+        <v>-107651</v>
       </c>
       <c r="H66" s="11">
-        <v>-107651</v>
+        <v>-146657</v>
       </c>
       <c r="I66" s="11">
-        <v>-146657</v>
+        <v>-134515</v>
       </c>
       <c r="J66" s="11">
-        <v>-134515</v>
+        <v>-89229</v>
       </c>
       <c r="K66" s="11">
-        <v>-89229</v>
+        <v>-197677</v>
       </c>
       <c r="L66" s="11">
-        <v>-197677</v>
+        <v>-288717</v>
       </c>
       <c r="M66" s="11">
-        <v>-288717</v>
+        <v>-130208</v>
       </c>
       <c r="N66" s="11">
-        <v>-130208</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-265901</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="14" t="s">
         <v>43</v>
       </c>
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
       <c r="E67" s="15">
-        <v>-856560</v>
+        <v>-931631</v>
       </c>
       <c r="F67" s="15">
-        <v>-931631</v>
+        <v>-658700</v>
       </c>
       <c r="G67" s="15">
-        <v>-658700</v>
+        <v>-932633</v>
       </c>
       <c r="H67" s="15">
-        <v>-932633</v>
+        <v>-923874</v>
       </c>
       <c r="I67" s="15">
-        <v>-923874</v>
+        <v>-977412</v>
       </c>
       <c r="J67" s="15">
-        <v>-977412</v>
+        <v>-1209237</v>
       </c>
       <c r="K67" s="15">
-        <v>-1209237</v>
+        <v>-991108</v>
       </c>
       <c r="L67" s="15">
-        <v>-991108</v>
+        <v>-1738135</v>
       </c>
       <c r="M67" s="15">
-        <v>-1738135</v>
+        <v>-1229452</v>
       </c>
       <c r="N67" s="15">
-        <v>-1229452</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-2542839</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>44</v>
       </c>
@@ -2604,7 +2604,7 @@
       <c r="M68" s="9"/>
       <c r="N68" s="9"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>16</v>
       </c>
@@ -2613,25 +2613,25 @@
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11">
-        <v>-13356</v>
+        <v>-332</v>
       </c>
       <c r="F69" s="11">
-        <v>-332</v>
+        <v>-2133</v>
       </c>
       <c r="G69" s="11">
-        <v>-2133</v>
+        <v>-7989</v>
       </c>
       <c r="H69" s="11">
-        <v>-7989</v>
+        <v>8</v>
       </c>
       <c r="I69" s="11">
-        <v>8</v>
+        <v>-33967</v>
       </c>
       <c r="J69" s="11">
-        <v>-33967</v>
+        <v>-2343</v>
       </c>
       <c r="K69" s="11">
-        <v>-2343</v>
+        <v>0</v>
       </c>
       <c r="L69" s="11">
         <v>0</v>
@@ -2643,7 +2643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="12" t="s">
         <v>19</v>
       </c>
@@ -2652,37 +2652,37 @@
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="13">
-        <v>-53376</v>
+        <v>-58059</v>
       </c>
       <c r="F70" s="13">
-        <v>-58059</v>
+        <v>-99242</v>
       </c>
       <c r="G70" s="13">
-        <v>-99242</v>
+        <v>-82349</v>
       </c>
       <c r="H70" s="13">
-        <v>-82349</v>
+        <v>-122597</v>
       </c>
       <c r="I70" s="13">
-        <v>-122597</v>
+        <v>-40135</v>
       </c>
       <c r="J70" s="13">
-        <v>-40135</v>
+        <v>-23637</v>
       </c>
       <c r="K70" s="13">
-        <v>-23637</v>
+        <v>-182048</v>
       </c>
       <c r="L70" s="13">
-        <v>-182048</v>
+        <v>-74679</v>
       </c>
       <c r="M70" s="13">
-        <v>-74679</v>
+        <v>-121498</v>
       </c>
       <c r="N70" s="13">
-        <v>-121498</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-89079</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>20</v>
       </c>
@@ -2691,25 +2691,25 @@
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11">
-        <v>-13294</v>
+        <v>-31088</v>
       </c>
       <c r="F71" s="11">
-        <v>-31088</v>
+        <v>-3433</v>
       </c>
       <c r="G71" s="11">
-        <v>-3433</v>
+        <v>-4992</v>
       </c>
       <c r="H71" s="11">
-        <v>-4992</v>
+        <v>-38287</v>
       </c>
       <c r="I71" s="11">
-        <v>-38287</v>
+        <v>11905</v>
       </c>
       <c r="J71" s="11">
-        <v>11905</v>
+        <v>-21829</v>
       </c>
       <c r="K71" s="11">
-        <v>-21829</v>
+        <v>0</v>
       </c>
       <c r="L71" s="11">
         <v>0</v>
@@ -2721,44 +2721,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
       <c r="E72" s="15">
-        <v>-80026</v>
+        <v>-89479</v>
       </c>
       <c r="F72" s="15">
-        <v>-89479</v>
+        <v>-104808</v>
       </c>
       <c r="G72" s="15">
-        <v>-104808</v>
+        <v>-95330</v>
       </c>
       <c r="H72" s="15">
-        <v>-95330</v>
+        <v>-160876</v>
       </c>
       <c r="I72" s="15">
-        <v>-160876</v>
+        <v>-62197</v>
       </c>
       <c r="J72" s="15">
-        <v>-62197</v>
+        <v>-47809</v>
       </c>
       <c r="K72" s="15">
-        <v>-47809</v>
+        <v>-182048</v>
       </c>
       <c r="L72" s="15">
-        <v>-182048</v>
+        <v>-74679</v>
       </c>
       <c r="M72" s="15">
-        <v>-74679</v>
+        <v>-121498</v>
       </c>
       <c r="N72" s="15">
-        <v>-121498</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-89079</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="16" t="s">
         <v>46</v>
       </c>
@@ -2775,7 +2775,7 @@
       <c r="M73" s="17"/>
       <c r="N73" s="17"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="18" t="s">
         <v>47</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="14" t="s">
         <v>27</v>
       </c>
@@ -2826,8 +2826,8 @@
       <c r="F75" s="15">
         <v>0</v>
       </c>
-      <c r="G75" s="15">
-        <v>0</v>
+      <c r="G75" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="H75" s="15" t="s">
         <v>18</v>
@@ -2851,7 +2851,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="18" t="s">
         <v>29</v>
       </c>
@@ -2865,11 +2865,11 @@
       <c r="F76" s="19">
         <v>0</v>
       </c>
-      <c r="G76" s="19">
-        <v>0</v>
-      </c>
-      <c r="H76" s="19" t="s">
-        <v>18</v>
+      <c r="G76" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H76" s="19">
+        <v>0</v>
       </c>
       <c r="I76" s="19">
         <v>0</v>
@@ -2890,44 +2890,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C77" s="15"/>
       <c r="D77" s="15"/>
       <c r="E77" s="15">
-        <v>-936586</v>
+        <v>-1021110</v>
       </c>
       <c r="F77" s="15">
-        <v>-1021110</v>
+        <v>-763508</v>
       </c>
       <c r="G77" s="15">
-        <v>-763508</v>
+        <v>-1027963</v>
       </c>
       <c r="H77" s="15">
-        <v>-1027963</v>
+        <v>-1084750</v>
       </c>
       <c r="I77" s="15">
-        <v>-1084750</v>
+        <v>-1039609</v>
       </c>
       <c r="J77" s="15">
-        <v>-1039609</v>
+        <v>-1257046</v>
       </c>
       <c r="K77" s="15">
-        <v>-1257046</v>
+        <v>-1173156</v>
       </c>
       <c r="L77" s="15">
-        <v>-1173156</v>
+        <v>-1812814</v>
       </c>
       <c r="M77" s="15">
-        <v>-1812814</v>
+        <v>-1350950</v>
       </c>
       <c r="N77" s="15">
-        <v>-1350950</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-2631918</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2942,7 +2942,7 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2957,7 +2957,7 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2972,7 +2972,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B81" s="7" t="s">
         <v>48</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -3024,7 +3024,7 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>49</v>
       </c>
@@ -3041,7 +3041,7 @@
       <c r="M83" s="9"/>
       <c r="N83" s="9"/>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>16</v>
       </c>
@@ -3050,37 +3050,37 @@
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11">
-        <v>315076</v>
+        <v>797130</v>
       </c>
       <c r="F84" s="11">
-        <v>797130</v>
+        <v>439324</v>
       </c>
       <c r="G84" s="11">
-        <v>439324</v>
+        <v>756730</v>
       </c>
       <c r="H84" s="11">
-        <v>756730</v>
+        <v>853684</v>
       </c>
       <c r="I84" s="11">
-        <v>853684</v>
+        <v>559421</v>
       </c>
       <c r="J84" s="11">
-        <v>559421</v>
+        <v>737853</v>
       </c>
       <c r="K84" s="11">
-        <v>737853</v>
+        <v>509860</v>
       </c>
       <c r="L84" s="11">
-        <v>509860</v>
+        <v>1296287</v>
       </c>
       <c r="M84" s="11">
-        <v>1296287</v>
+        <v>796778</v>
       </c>
       <c r="N84" s="11">
-        <v>796778</v>
-      </c>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1594027</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="12" t="s">
         <v>19</v>
       </c>
@@ -3089,37 +3089,37 @@
       </c>
       <c r="D85" s="13"/>
       <c r="E85" s="13">
-        <v>117161</v>
+        <v>85133</v>
       </c>
       <c r="F85" s="13">
-        <v>85133</v>
+        <v>94995</v>
       </c>
       <c r="G85" s="13">
-        <v>94995</v>
+        <v>196155</v>
       </c>
       <c r="H85" s="13">
-        <v>196155</v>
+        <v>351949</v>
       </c>
       <c r="I85" s="13">
-        <v>351949</v>
+        <v>199797</v>
       </c>
       <c r="J85" s="13">
-        <v>199797</v>
+        <v>183853</v>
       </c>
       <c r="K85" s="13">
-        <v>183853</v>
+        <v>48720</v>
       </c>
       <c r="L85" s="13">
-        <v>48720</v>
+        <v>56678</v>
       </c>
       <c r="M85" s="13">
-        <v>56678</v>
+        <v>35596</v>
       </c>
       <c r="N85" s="13">
-        <v>35596</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1111</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>20</v>
       </c>
@@ -3128,74 +3128,74 @@
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11">
-        <v>158328</v>
+        <v>109182</v>
       </c>
       <c r="F86" s="11">
-        <v>109182</v>
+        <v>48778</v>
       </c>
       <c r="G86" s="11">
-        <v>48778</v>
+        <v>43659</v>
       </c>
       <c r="H86" s="11">
-        <v>43659</v>
+        <v>118226</v>
       </c>
       <c r="I86" s="11">
-        <v>118226</v>
+        <v>61771</v>
       </c>
       <c r="J86" s="11">
-        <v>61771</v>
+        <v>109635</v>
       </c>
       <c r="K86" s="11">
-        <v>109635</v>
+        <v>153430</v>
       </c>
       <c r="L86" s="11">
-        <v>153430</v>
+        <v>206711</v>
       </c>
       <c r="M86" s="11">
-        <v>206711</v>
+        <v>217857</v>
       </c>
       <c r="N86" s="11">
-        <v>217857</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+        <v>54175</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="14" t="s">
         <v>50</v>
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
       <c r="E87" s="15">
-        <v>590565</v>
+        <v>991445</v>
       </c>
       <c r="F87" s="15">
-        <v>991445</v>
+        <v>583097</v>
       </c>
       <c r="G87" s="15">
-        <v>583097</v>
+        <v>996544</v>
       </c>
       <c r="H87" s="15">
-        <v>996544</v>
+        <v>1323859</v>
       </c>
       <c r="I87" s="15">
-        <v>1323859</v>
+        <v>820989</v>
       </c>
       <c r="J87" s="15">
-        <v>820989</v>
+        <v>1031341</v>
       </c>
       <c r="K87" s="15">
-        <v>1031341</v>
+        <v>712010</v>
       </c>
       <c r="L87" s="15">
-        <v>712010</v>
+        <v>1559676</v>
       </c>
       <c r="M87" s="15">
-        <v>1559676</v>
+        <v>1050231</v>
       </c>
       <c r="N87" s="15">
-        <v>1050231</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1647091</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
         <v>51</v>
       </c>
@@ -3212,7 +3212,7 @@
       <c r="M88" s="9"/>
       <c r="N88" s="9"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>16</v>
       </c>
@@ -3221,25 +3221,25 @@
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11">
-        <v>12462</v>
+        <v>-332</v>
       </c>
       <c r="F89" s="11">
-        <v>-332</v>
+        <v>-2133</v>
       </c>
       <c r="G89" s="11">
-        <v>-2133</v>
+        <v>10331</v>
       </c>
       <c r="H89" s="11">
-        <v>10331</v>
+        <v>8</v>
       </c>
       <c r="I89" s="11">
-        <v>8</v>
+        <v>17013</v>
       </c>
       <c r="J89" s="11">
-        <v>17013</v>
+        <v>-2343</v>
       </c>
       <c r="K89" s="11">
-        <v>-2343</v>
+        <v>0</v>
       </c>
       <c r="L89" s="11">
         <v>0</v>
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="12" t="s">
         <v>19</v>
       </c>
@@ -3260,37 +3260,37 @@
       </c>
       <c r="D90" s="13"/>
       <c r="E90" s="13">
-        <v>423337</v>
+        <v>547112</v>
       </c>
       <c r="F90" s="13">
-        <v>547112</v>
+        <v>84423</v>
       </c>
       <c r="G90" s="13">
-        <v>84423</v>
+        <v>316770</v>
       </c>
       <c r="H90" s="13">
-        <v>316770</v>
+        <v>402463</v>
       </c>
       <c r="I90" s="13">
-        <v>402463</v>
+        <v>90905</v>
       </c>
       <c r="J90" s="13">
-        <v>90905</v>
+        <v>102120</v>
       </c>
       <c r="K90" s="13">
-        <v>102120</v>
+        <v>615713</v>
       </c>
       <c r="L90" s="13">
-        <v>615713</v>
+        <v>73985</v>
       </c>
       <c r="M90" s="13">
-        <v>73985</v>
+        <v>170384</v>
       </c>
       <c r="N90" s="13">
-        <v>170384</v>
-      </c>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+        <v>286612</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>20</v>
       </c>
@@ -3299,25 +3299,25 @@
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11">
-        <v>43553</v>
+        <v>50183</v>
       </c>
       <c r="F91" s="11">
-        <v>50183</v>
+        <v>12491</v>
       </c>
       <c r="G91" s="11">
-        <v>12491</v>
+        <v>9557</v>
       </c>
       <c r="H91" s="11">
-        <v>9557</v>
+        <v>47925</v>
       </c>
       <c r="I91" s="11">
-        <v>47925</v>
+        <v>11905</v>
       </c>
       <c r="J91" s="11">
-        <v>11905</v>
+        <v>-21829</v>
       </c>
       <c r="K91" s="11">
-        <v>-21829</v>
+        <v>0</v>
       </c>
       <c r="L91" s="11">
         <v>0</v>
@@ -3329,44 +3329,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="14" t="s">
         <v>52</v>
       </c>
       <c r="C92" s="15"/>
       <c r="D92" s="15"/>
       <c r="E92" s="15">
-        <v>479352</v>
+        <v>596963</v>
       </c>
       <c r="F92" s="15">
-        <v>596963</v>
+        <v>94781</v>
       </c>
       <c r="G92" s="15">
-        <v>94781</v>
+        <v>336658</v>
       </c>
       <c r="H92" s="15">
-        <v>336658</v>
+        <v>450396</v>
       </c>
       <c r="I92" s="15">
-        <v>450396</v>
+        <v>119823</v>
       </c>
       <c r="J92" s="15">
-        <v>119823</v>
+        <v>77948</v>
       </c>
       <c r="K92" s="15">
-        <v>77948</v>
+        <v>615713</v>
       </c>
       <c r="L92" s="15">
-        <v>615713</v>
+        <v>73985</v>
       </c>
       <c r="M92" s="15">
-        <v>73985</v>
+        <v>170384</v>
       </c>
       <c r="N92" s="15">
-        <v>170384</v>
-      </c>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+        <v>286612</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="16" t="s">
         <v>53</v>
       </c>
@@ -3383,7 +3383,7 @@
       <c r="M93" s="17"/>
       <c r="N93" s="17"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="18" t="s">
         <v>54</v>
       </c>
@@ -3420,41 +3420,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C95" s="15"/>
       <c r="D95" s="15"/>
       <c r="E95" s="15">
-        <v>1069917</v>
+        <v>1588408</v>
       </c>
       <c r="F95" s="15">
-        <v>1588408</v>
+        <v>677878</v>
       </c>
       <c r="G95" s="15">
-        <v>677878</v>
+        <v>1333202</v>
       </c>
       <c r="H95" s="15">
-        <v>1333202</v>
+        <v>1774255</v>
       </c>
       <c r="I95" s="15">
-        <v>1774255</v>
+        <v>940812</v>
       </c>
       <c r="J95" s="15">
-        <v>940812</v>
+        <v>1109289</v>
       </c>
       <c r="K95" s="15">
-        <v>1109289</v>
+        <v>1327723</v>
       </c>
       <c r="L95" s="15">
-        <v>1327723</v>
+        <v>1633661</v>
       </c>
       <c r="M95" s="15">
-        <v>1633661</v>
+        <v>1220615</v>
       </c>
       <c r="N95" s="15">
-        <v>1220615</v>
+        <v>1933703</v>
       </c>
     </row>
   </sheetData>
